--- a/docs/pass_react_import.xlsx
+++ b/docs/pass_react_import.xlsx
@@ -279,15 +279,6 @@
     <t>etc/FaqDetail.js</t>
   </si>
   <si>
-    <t>ect/Report.js</t>
-  </si>
-  <si>
-    <t>ect/ReportGasSmell.js</t>
-  </si>
-  <si>
-    <t>ect/ReportForkcrane.js</t>
-  </si>
-  <si>
     <t>etc/CenterAreaSearch.js</t>
   </si>
   <si>
@@ -365,6 +356,18 @@
   </si>
   <si>
     <t>members/Member.js</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>etc/Report.js</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>etc/ReportGasSmell.js</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>etc/ReportForkcrane.js</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -758,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -810,7 +813,7 @@
     </row>
     <row r="10" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -858,7 +861,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
@@ -915,12 +918,12 @@
     </row>
     <row r="31" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1100,22 +1103,22 @@
     </row>
     <row r="68" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1140,7 +1143,7 @@
     </row>
     <row r="76" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B76" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1230,97 +1233,97 @@
     </row>
     <row r="94" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B94" s="2" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B96" s="2" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B97" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B98" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B99" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B100" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B101" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B102" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B103" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B104" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B105" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="106" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B106" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B107" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B108" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="109" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="110" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/docs/pass_react_import.xlsx
+++ b/docs/pass_react_import.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\서울도시가스\scg-paas-server-prototype\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamdeng/Project/scg-paas-server-prototype/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403DE142-9767-8C4E-9679-44603C7808DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12495" windowHeight="10065"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25300" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>리액트 파일명
 (src/components)</t>
@@ -327,55 +328,47 @@
     <t>etc/MarketingAcceptance.js</t>
   </si>
   <si>
+    <t>members/Member.js</t>
+  </si>
+  <si>
+    <t>members/AppInfo.js</t>
+  </si>
+  <si>
+    <t>members/MemberRegist.js</t>
+  </si>
+  <si>
+    <t>reservations/Move.js</t>
+  </si>
+  <si>
     <t>reservations/MoveIn.js</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>reservations/MoveOut.js</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>members/AppInfo.js</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>members/MemberRegist.js</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservations/Move.js</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>reservations/Reservation.js</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>cash/Cash.js</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>members/Member.js</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>etc/Report.js</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>etc/ReportGasSmell.js</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>etc/ReportForkcrane.js</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>etc/VocEdit.js</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,47 +378,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6AA84F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -433,55 +423,32 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -758,577 +725,592 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="55.25" customWidth="1"/>
+    <col min="2" max="2" width="55.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" ht="30">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:2">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:2">
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:2">
+      <c r="B10" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="2:2">
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="2:2">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="2:2">
+      <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="2:2">
+      <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="2:2">
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="2:2">
+      <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="2:2">
+      <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="2" t="s">
+    <row r="26" spans="2:2">
+      <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="2" t="s">
+    <row r="27" spans="2:2">
+      <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="2:2">
+      <c r="B28" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="2" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="2" t="s">
+    <row r="30" spans="2:2">
+      <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="2" t="s">
+    <row r="31" spans="2:2">
+      <c r="B31" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2">
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="2" t="s">
+    <row r="34" spans="2:2">
+      <c r="B34" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="2" t="s">
+    <row r="35" spans="2:2">
+      <c r="B35" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="2" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="2" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="2" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="2" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="2" t="s">
+    <row r="40" spans="2:2">
+      <c r="B40" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="2" t="s">
+    <row r="41" spans="2:2">
+      <c r="B41" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="2" t="s">
+    <row r="42" spans="2:2">
+      <c r="B42" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="2" t="s">
+    <row r="43" spans="2:2">
+      <c r="B43" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="2" t="s">
+    <row r="44" spans="2:2">
+      <c r="B44" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="2" t="s">
+    <row r="45" spans="2:2">
+      <c r="B45" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="2" t="s">
+    <row r="46" spans="2:2">
+      <c r="B46" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="2" t="s">
+    <row r="47" spans="2:2">
+      <c r="B47" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="2" t="s">
+    <row r="48" spans="2:2">
+      <c r="B48" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="2" t="s">
+    <row r="49" spans="2:2">
+      <c r="B49" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="2" t="s">
+    <row r="50" spans="2:2">
+      <c r="B50" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="2" t="s">
+    <row r="51" spans="2:2">
+      <c r="B51" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="2" t="s">
+    <row r="52" spans="2:2">
+      <c r="B52" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="2" t="s">
+    <row r="53" spans="2:2">
+      <c r="B53" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="2" t="s">
+    <row r="54" spans="2:2">
+      <c r="B54" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="2" t="s">
+    <row r="55" spans="2:2">
+      <c r="B55" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="2" t="s">
+    <row r="56" spans="2:2">
+      <c r="B56" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="2" t="s">
+    <row r="57" spans="2:2">
+      <c r="B57" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="2" t="s">
+    <row r="58" spans="2:2">
+      <c r="B58" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="2" t="s">
+    <row r="59" spans="2:2">
+      <c r="B59" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="2" t="s">
+    <row r="60" spans="2:2">
+      <c r="B60" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="2" t="s">
+    <row r="61" spans="2:2">
+      <c r="B61" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="2" t="s">
+    <row r="62" spans="2:2">
+      <c r="B62" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="2" t="s">
+    <row r="63" spans="2:2">
+      <c r="B63" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="2" t="s">
+    <row r="64" spans="2:2">
+      <c r="B64" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="2" t="s">
+    <row r="65" spans="2:2">
+      <c r="B65" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="2" t="s">
+    <row r="66" spans="2:2">
+      <c r="B66" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="2" t="s">
+    <row r="67" spans="2:2">
+      <c r="B67" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="2" t="s">
+    <row r="68" spans="2:2">
+      <c r="B68" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="2" t="s">
+    <row r="70" spans="2:2">
+      <c r="B70" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="2" t="s">
+    <row r="71" spans="2:2">
+      <c r="B71" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="2" t="s">
+    <row r="73" spans="2:2">
+      <c r="B73" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="2" t="s">
+    <row r="74" spans="2:2">
+      <c r="B74" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="2" t="s">
+    <row r="75" spans="2:2">
+      <c r="B75" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="2" t="s">
+    <row r="76" spans="2:2">
+      <c r="B76" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="2" t="s">
+    <row r="78" spans="2:2">
+      <c r="B78" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="2" t="s">
+    <row r="79" spans="2:2">
+      <c r="B79" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="2" t="s">
+    <row r="80" spans="2:2">
+      <c r="B80" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="2" t="s">
+    <row r="81" spans="2:2">
+      <c r="B81" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="2" t="s">
+    <row r="82" spans="2:2">
+      <c r="B82" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="2" t="s">
+    <row r="83" spans="2:2">
+      <c r="B83" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="2" t="s">
+    <row r="84" spans="2:2">
+      <c r="B84" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="2" t="s">
+    <row r="85" spans="2:2">
+      <c r="B85" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="2" t="s">
+    <row r="86" spans="2:2">
+      <c r="B86" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="2" t="s">
+    <row r="87" spans="2:2">
+      <c r="B87" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="2" t="s">
+    <row r="88" spans="2:2">
+      <c r="B88" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="89" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="2" t="s">
+    <row r="89" spans="2:2">
+      <c r="B89" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="2" t="s">
+    <row r="90" spans="2:2">
+      <c r="B90" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="2" t="s">
+    <row r="91" spans="2:2">
+      <c r="B91" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="2" t="s">
+    <row r="92" spans="2:2">
+      <c r="B92" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="2" t="s">
+    <row r="93" spans="2:2">
+      <c r="B93" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="94" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="2" t="s">
+    <row r="94" spans="2:2">
+      <c r="B94" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="2" t="s">
+    <row r="95" spans="2:2">
+      <c r="B95" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="2" t="s">
+    <row r="96" spans="2:2">
+      <c r="B96" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="2" t="s">
+    <row r="97" spans="2:2">
+      <c r="B97" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="2" t="s">
+    <row r="98" spans="2:2">
+      <c r="B98" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="2" t="s">
+    <row r="99" spans="2:2">
+      <c r="B99" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="2" t="s">
+    <row r="100" spans="2:2">
+      <c r="B100" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="101" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="2" t="s">
+    <row r="101" spans="2:2">
+      <c r="B101" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="102" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="2" t="s">
+    <row r="102" spans="2:2">
+      <c r="B102" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="2" t="s">
+    <row r="103" spans="2:2">
+      <c r="B103" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="2" t="s">
+    <row r="104" spans="2:2">
+      <c r="B104" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="105" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="2" t="s">
+    <row r="105" spans="2:2">
+      <c r="B105" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="106" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="2" t="s">
+    <row r="106" spans="2:2">
+      <c r="B106" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="107" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="2" t="s">
+    <row r="108" spans="2:2">
+      <c r="B108" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="108" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="2" t="s">
+    <row r="109" spans="2:2">
+      <c r="B109" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="109" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="2" t="s">
+    <row r="110" spans="2:2">
+      <c r="B110" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="110" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="2" t="s">
+    <row r="111" spans="2:2">
+      <c r="B111" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="111" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="2" t="s">
+    <row r="112" spans="2:2">
+      <c r="B112" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="112" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
+    <row r="113" spans="2:2">
+      <c r="B113" s="3" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="http://walkthrough.js/" xr:uid="{5B13100D-2EBF-0A43-A9C7-32B865D8E7BE}"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://selectcompany.js/" xr:uid="{E3A66B1E-B4F9-474E-9CAC-76C5B136D8F8}"/>
+    <hyperlink ref="B5" r:id="rId3" display="http://alreadymemberagree.js/" xr:uid="{16E6F0F2-02FA-014B-84D1-117074C68EBD}"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://home.js/" xr:uid="{7FC75F33-DF89-704C-A312-0F5685B2140F}"/>
+    <hyperlink ref="B7" r:id="rId5" display="http://search.js/" xr:uid="{8D036A32-5246-DC46-A123-953334E8A4CB}"/>
+    <hyperlink ref="B8" r:id="rId6" display="http://taskall.js/" xr:uid="{501071A7-45BB-9742-9ADC-618C9D1EC4BC}"/>
+    <hyperlink ref="B9" r:id="rId7" display="http://cstalk.js/" xr:uid="{4B5C4BE3-E70E-474C-B592-B0944803DFF0}"/>
+    <hyperlink ref="B11" r:id="rId8" display="http://pushlist.js/" xr:uid="{800ED712-B41F-1A46-9AF3-9A13443A682A}"/>
+    <hyperlink ref="B33" r:id="rId9" display="http://ciauthresult.js/" xr:uid="{DD68A146-EA8F-8347-B2D8-F02663E60EDF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
--- a/docs/pass_react_import.xlsx
+++ b/docs/pass_react_import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamdeng/Project/scg-paas-server-prototype/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403DE142-9767-8C4E-9679-44603C7808DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1846253A-1CA2-3E4A-A575-6AE541A6A866}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25300" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>리액트 파일명
 (src/components)</t>
@@ -362,6 +362,10 @@
   </si>
   <si>
     <t>etc/VocEdit.js</t>
+  </si>
+  <si>
+    <t>charge/BillMonthDetail.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -726,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B113"/>
+  <dimension ref="B2:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -914,386 +918,391 @@
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="3" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="3" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="3" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="3" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="3" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="3" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="3" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="3" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="3" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="3" t="s">
         <v>99</v>
       </c>
     </row>

--- a/docs/pass_react_import.xlsx
+++ b/docs/pass_react_import.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamdeng/Project/scg-paas-server-prototype/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\서울도시가스\scg-paas-server-prototype\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1846253A-1CA2-3E4A-A575-6AE541A6A866}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25300" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25305" windowHeight="16665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -371,8 +370,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,15 +400,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -428,31 +418,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -729,597 +712,586 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="55.1640625" customWidth="1"/>
+    <col min="2" max="2" width="55.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="30">
+    <row r="2" spans="2:2" ht="30" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="3" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="3" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="3" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="3" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="3" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="2" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="3" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="3" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="3" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="3" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="3" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="3" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="3" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="3" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="3" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="3" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="3" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="3" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="3" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="3" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="3" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="3" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="3" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="3" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="3" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="3" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="3" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="3" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="3" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="3" t="s">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="3" t="s">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="3" t="s">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="3" t="s">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="3" t="s">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="3" t="s">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="3" t="s">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="3" t="s">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="3" t="s">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="3" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="3" t="s">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="3" t="s">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="3" t="s">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="3" t="s">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="3" t="s">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="3" t="s">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="3" t="s">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="3" t="s">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="3" t="s">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="3" t="s">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="3" t="s">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="3" t="s">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="3" t="s">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="3" t="s">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="3" t="s">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="3" t="s">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="3" t="s">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="3" t="s">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="3" t="s">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="3" t="s">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="3" t="s">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="3" t="s">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="3" t="s">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="3" t="s">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="3" t="s">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="3" t="s">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="3" t="s">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
-      <c r="B94" s="3" t="s">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
-      <c r="B95" s="3" t="s">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
-      <c r="B96" s="3" t="s">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="3" t="s">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="3" t="s">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="3" t="s">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="3" t="s">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="3" t="s">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="3" t="s">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="3" t="s">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="3" t="s">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="3" t="s">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="3" t="s">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="3" t="s">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="3" t="s">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="3" t="s">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="3" t="s">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
-      <c r="B111" s="3" t="s">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="112" spans="2:2">
-      <c r="B112" s="3" t="s">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="3" t="s">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="3" t="s">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="2" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://walkthrough.js/" xr:uid="{5B13100D-2EBF-0A43-A9C7-32B865D8E7BE}"/>
-    <hyperlink ref="B4" r:id="rId2" display="http://selectcompany.js/" xr:uid="{E3A66B1E-B4F9-474E-9CAC-76C5B136D8F8}"/>
-    <hyperlink ref="B5" r:id="rId3" display="http://alreadymemberagree.js/" xr:uid="{16E6F0F2-02FA-014B-84D1-117074C68EBD}"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://home.js/" xr:uid="{7FC75F33-DF89-704C-A312-0F5685B2140F}"/>
-    <hyperlink ref="B7" r:id="rId5" display="http://search.js/" xr:uid="{8D036A32-5246-DC46-A123-953334E8A4CB}"/>
-    <hyperlink ref="B8" r:id="rId6" display="http://taskall.js/" xr:uid="{501071A7-45BB-9742-9ADC-618C9D1EC4BC}"/>
-    <hyperlink ref="B9" r:id="rId7" display="http://cstalk.js/" xr:uid="{4B5C4BE3-E70E-474C-B592-B0944803DFF0}"/>
-    <hyperlink ref="B11" r:id="rId8" display="http://pushlist.js/" xr:uid="{800ED712-B41F-1A46-9AF3-9A13443A682A}"/>
-    <hyperlink ref="B33" r:id="rId9" display="http://ciauthresult.js/" xr:uid="{DD68A146-EA8F-8347-B2D8-F02663E60EDF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>